--- a/src/polls/tests/xlsTest.xlsx
+++ b/src/polls/tests/xlsTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alefg\projects\webExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alefg\projects\webExcel\src\polls\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102C0F37-E12E-4B31-9EA6-0D12F726093E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43652A0C-701B-4FF7-9ACC-9ABD4F8B9DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{D55FA35A-1381-4111-B690-26391594F619}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>jose</t>
   </si>
@@ -47,21 +47,16 @@
   <si>
     <t>joelia</t>
   </si>
+  <si>
+    <t>tt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A78DF25-5EF3-4F48-8E36-4D71D75D96B1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,32 +413,58 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
       <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
